--- a/CSB/CSBplanning.xlsx
+++ b/CSB/CSBplanning.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\source\repos\ZeusKingOfTheGods\CS S3\BasicKnowledgeAssignment\CSB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim\source\repos\CS S3\BasicKnowledgeAssignment\CSB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4015DFC-1E0C-4661-8E64-F1451DEA9C2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25FC7BF-32BB-45BC-8D9C-A2A77D26FFC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C48FE3CD-4CC0-421D-9FE0-15690AEC83A1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{C48FE3CD-4CC0-421D-9FE0-15690AEC83A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -185,7 +185,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -201,7 +201,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -500,17 +500,17 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q51" sqref="Q51"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="60.6640625" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="1" max="1" width="60.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -542,12 +542,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="3"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -557,14 +557,14 @@
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="3"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -572,7 +572,7 @@
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -580,14 +580,14 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="3"/>
+      <c r="F4" s="1"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -602,7 +602,7 @@
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -617,7 +617,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="7"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -632,7 +632,7 @@
       <c r="J7" s="7"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -644,7 +644,7 @@
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -656,7 +656,7 @@
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -668,7 +668,7 @@
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -680,7 +680,7 @@
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -692,7 +692,7 @@
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -704,7 +704,7 @@
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -716,37 +716,37 @@
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>14</v>
       </c>
       <c r="B22" s="5"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>15</v>
       </c>
